--- a/API/Model/GenerateExcel/Templates/Overall Evaluation Average Timeline.xlsx
+++ b/API/Model/GenerateExcel/Templates/Overall Evaluation Average Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE6106-C053-4590-8CA7-0AB09B8753FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A9164C-632F-4AC3-AA28-4EAA5575087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,26 +81,21 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <u/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -132,22 +127,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +165,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>513762</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6AFC64-E864-96EB-B1E3-F16B61125AEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="1299182" cy="1298864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,137 +542,187 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:C31"/>
+  <dimension ref="A3:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="40" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="70" zoomScaleSheetLayoutView="130" zoomScalePageLayoutView="40" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" ht="25.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="8" spans="1:3" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="25.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="31" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -633,6 +731,7 @@
     <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>